--- a/Configuration_template_phase2.xlsx
+++ b/Configuration_template_phase2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aearntsen/CFARS_Phase2_Work/Repository/cfars-ss/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03965A7A-C5BF-A44E-95EF-2B9A03BDC0DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3F0A02-1881-5044-9064-011A98B3D054}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38440" yWindow="-11440" windowWidth="25280" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31820" yWindow="-10980" windowWidth="25280" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration_template" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="154">
   <si>
     <t>60m Wind Direction</t>
   </si>
@@ -487,6 +487,9 @@
   </si>
   <si>
     <t>Y (please note any applied function)</t>
+  </si>
+  <si>
+    <t>WindCubev2.1</t>
   </si>
 </sst>
 </file>
@@ -1038,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1112,7 +1115,7 @@
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>50</v>
@@ -1150,9 +1153,6 @@
       <c r="A7" t="s">
         <v>37</v>
       </c>
-      <c r="B7" t="s">
-        <v>89</v>
-      </c>
       <c r="D7" t="s">
         <v>52</v>
       </c>
@@ -1165,13 +1165,13 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
         <v>77</v>
@@ -1339,13 +1339,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
-          <x14:formula1>
-            <xm:f>RSD_Models!$A$1:$A$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>B34</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="14">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000008000000}">
           <x14:formula1>
             <xm:f>Metadata!$B$2:$B$5</xm:f>
@@ -1360,9 +1354,9 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000A000000}">
           <x14:formula1>
-            <xm:f>Metadata!$F$2:$F$9</xm:f>
+            <xm:f>RSD_Models!$A$1:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>E8</xm:sqref>
+          <xm:sqref>E8 B34</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000B000000}">
           <x14:formula1>
@@ -1939,7 +1933,7 @@
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2031,15 +2025,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
@@ -2059,26 +2053,31 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>28</v>
       </c>
     </row>
